--- a/src/test/resources/TestData/SupportedCounties.xlsx
+++ b/src/test/resources/TestData/SupportedCounties.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="CountriesWithCurrency" sheetId="7" r:id="rId1"/>
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
-    <sheet name="CountriesWithCurrency (2)" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>TestCases</t>
   </si>
@@ -221,33 +220,15 @@
     <t>UAE</t>
   </si>
   <si>
-    <t>From 10.00 AED/week</t>
-  </si>
-  <si>
-    <t>From 10.00 Egyptian pound/month</t>
-  </si>
-  <si>
     <t>AED</t>
   </si>
   <si>
-    <t>From 900.00 IQ/week</t>
-  </si>
-  <si>
     <t>JOD</t>
   </si>
   <si>
-    <t>From 0.99 JOD/week</t>
-  </si>
-  <si>
     <t>IQ</t>
   </si>
   <si>
-    <t>From 1.00 OMR/week</t>
-  </si>
-  <si>
-    <t>From 1.00 TND/week</t>
-  </si>
-  <si>
     <t>OMR</t>
   </si>
   <si>
@@ -270,6 +251,18 @@
   </si>
   <si>
     <t xml:space="preserve">test case </t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>5.3&amp;</t>
+  </si>
+  <si>
+    <t>4.8&amp;</t>
+  </si>
+  <si>
+    <t>3.9&amp;</t>
   </si>
 </sst>
 </file>
@@ -740,7 +733,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,13 +746,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>48</v>
@@ -779,7 +772,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>64</v>
@@ -796,10 +789,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,10 +803,10 @@
         <v>63</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,10 +817,10 @@
         <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,10 +831,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,67 +845,109 @@
         <v>63</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,7 +960,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,209 +1213,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/SupportedCounties.xlsx
+++ b/src/test/resources/TestData/SupportedCounties.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CountriesWithCurrency" sheetId="7" r:id="rId1"/>
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A4:E26"/>
 </workbook>
 </file>
 
@@ -732,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/SupportedCounties.xlsx
+++ b/src/test/resources/TestData/SupportedCounties.xlsx
@@ -11,162 +11,21 @@
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:E26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>TestCases</t>
   </si>
   <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>OrderPage</t>
-  </si>
-  <si>
-    <t>SearchResultPage</t>
-  </si>
-  <si>
-    <t>AddressPage</t>
-  </si>
-  <si>
-    <t>ShippingPage</t>
-  </si>
-  <si>
-    <t>PaymentPage</t>
-  </si>
-  <si>
-    <t>OrderConfirmationPage</t>
-  </si>
-  <si>
-    <t>IndexPage</t>
-  </si>
-  <si>
-    <t>IndexPageTest</t>
-  </si>
-  <si>
-    <t>AccountCreationPage</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>AddToCartPage</t>
-  </si>
-  <si>
     <t>Pages Classes</t>
   </si>
   <si>
-    <t>TestClasses</t>
-  </si>
-  <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
-    <t>AccountCreationTest</t>
-  </si>
-  <si>
-    <t>SearchResultPageTest</t>
-  </si>
-  <si>
-    <t>AddToCartPageTest</t>
-  </si>
-  <si>
-    <t>OrderPageTest</t>
-  </si>
-  <si>
-    <t>EndToEndTest</t>
-  </si>
-  <si>
-    <t>productAvailabilityTest</t>
-  </si>
-  <si>
-    <t>addToCartTest</t>
-  </si>
-  <si>
-    <t>priceTest</t>
-  </si>
-  <si>
-    <t>endToEndTest</t>
-  </si>
-  <si>
-    <t>myStoreLogoTest
-myStoreTitle</t>
-  </si>
-  <si>
-    <t>wishListTest
-orderHistoryandDetailsTest</t>
-  </si>
-  <si>
-    <t>loginTest</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Logo should be present
-Title should match with expected value</t>
-  </si>
-  <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
-    <t>WishList should be displayed
-OderHistory should be displayed</t>
-  </si>
-  <si>
-    <t>User should be navigate to account creation page</t>
-  </si>
-  <si>
-    <t>Search the product and product should be displayed</t>
-  </si>
-  <si>
-    <t>User should be able to add the product in the cart</t>
-  </si>
-  <si>
-    <t>Validate the Price on Order Page</t>
-  </si>
-  <si>
-    <t>User should be able to order the product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Store Application - </t>
-  </si>
-  <si>
-    <t>OrderSummary</t>
-  </si>
-  <si>
-    <t>createAccountPageTest</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Sanity, Smoke</t>
-  </si>
-  <si>
-    <t>Regression, Sanity</t>
-  </si>
-  <si>
-    <t>Smoke
-Smoke</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -264,6 +123,58 @@
   </si>
   <si>
     <t>3.9&amp;</t>
+  </si>
+  <si>
+    <t>subscribe.jawwy.tv</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>GetBaseURLTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open home page </t>
+  </si>
+  <si>
+    <t>country Selector</t>
+  </si>
+  <si>
+    <t>Djibouti_Country_Selector_Test
+chad_Country_Selector_Test
+Algeria_Country_Selector_Test
+Country_Selector_Test
+Iraq_Country_Selector_Test
+Jordan_Country_Selector_Test
+Lebanon_Country_Selector_Test
+Morocco_Country_Selector_Test
+Oman_Country_Selector_Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click in country selector </t>
+  </si>
+  <si>
+    <t>AvalabilePackage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check available packages  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check currency per country 
+check price per country </t>
+  </si>
+  <si>
+    <t>Validate_Palestine_Country_currency_Price_Test
+Validate_Tunisia_Country_currency_Price_Test
+Validate_Yemen_Country_currency_Price_Test
+Validate_Oman_Country_currency_Price_Test
+Validate_Morocco_Country_currency_Price_Test
+Validate_Jordan_Country_currency_Price_Test
+Validate_Iraq_Country_currency_Price_Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check currency per country
+check price per country  </t>
   </si>
 </sst>
 </file>
@@ -319,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -379,41 +290,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -425,6 +309,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,207 +646,207 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>64</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>66</v>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>68</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>67</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>69</v>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>70</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>77</v>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>77</v>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>77</v>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>77</v>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>77</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>77</v>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>77</v>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -958,258 +857,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A4:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
